--- a/saitama_data.xlsx
+++ b/saitama_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shui0\Documents\my_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C361A6-925E-47EA-B6A2-5DD6CC6C0511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F60339-0728-4434-804E-DF1F1E874C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2576228-3C64-4755-8765-32EE5E7F2D7A}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -771,1103 +770,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>saitama_data2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>G図書館数【館】</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.13408420822397199"/>
-                  <c:y val="0.19986256926217555"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>saitama_data2!$B$2:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000_ </c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>7344765</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7342000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7325000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7307000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7288000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7266534</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7247000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7228000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7216000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7209000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7194556</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7161000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7136000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7106000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7079000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7054243</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7046000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7028000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6977000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6938006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6906000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6877000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>saitama_data2!$C$2:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000_ </c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>129</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-106D-48DE-AAE6-6A95A6DF5AAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1340168400"/>
-        <c:axId val="1340153520"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1340168400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00000_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1340153520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1340153520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00000_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1340168400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>327762</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>193451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>275166</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>165742</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764AC022-14FA-BBF3-53BB-2810E0F77FA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2190,7 +1092,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2467,7 +1369,6 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/saitama_data.xlsx
+++ b/saitama_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shui0\Documents\my_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F60339-0728-4434-804E-DF1F1E874C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6E5962-5EFA-42E2-AFB9-E029AB933E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2576228-3C64-4755-8765-32EE5E7F2D7A}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -711,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
